--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
     <sheet name="Trendings" sheetId="2" r:id="rId2"/>
     <sheet name="Notebook" sheetId="3" r:id="rId3"/>
+    <sheet name="Textbook" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="149">
   <si>
     <t>LET US C++ PB (Paperback)</t>
   </si>
@@ -406,6 +407,78 @@
   </si>
   <si>
     <t>Luxor 6 Subject Spiral Premium Exercise Notebook, Single Ruled - (21cm X 29.7cm), 300 Pages, Pack of 3</t>
+  </si>
+  <si>
+    <t>Engineering Hydrology (Paperback)</t>
+  </si>
+  <si>
+    <t>A Textbook of Strength of Materials (Paperback)</t>
+  </si>
+  <si>
+    <t>Mechanics of Materials (Paperback)</t>
+  </si>
+  <si>
+    <t>Concrete Technology theory and Practice (Paperback)</t>
+  </si>
+  <si>
+    <t>SMTS - I Strength of Materials (Paperback)</t>
+  </si>
+  <si>
+    <t>Soil Mechanics and Foundations (Paperback)</t>
+  </si>
+  <si>
+    <t>Advanced Mechanics of Solids (Paperback)</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineering and Technology (Paperback)</t>
+  </si>
+  <si>
+    <t>Engineering Mechanics Problems and Solutions (Paperback)</t>
+  </si>
+  <si>
+    <t>Problems of Nonlinear Mechanics and Physics of Materials (Paperback)</t>
+  </si>
+  <si>
+    <t>Applied Computational Fluid Dynamics (Paperback)</t>
+  </si>
+  <si>
+    <t>Incropera's Principles of Heat and Mass Transfer (Paperback)</t>
+  </si>
+  <si>
+    <t>Engineering Physics: Theory and Practical (Paperback)</t>
+  </si>
+  <si>
+    <t>Product Design for Modularity (Hardcover)</t>
+  </si>
+  <si>
+    <t>Design of Steel Structures, 5ed: By Limit State Method (Paperback)</t>
+  </si>
+  <si>
+    <t>Chemistry Textbook Part - 1 For Class - 12 - 12085 (Paperback)</t>
+  </si>
+  <si>
+    <t>Ananthanarayan and Paniker's Textbook of Microbiology  (Paperback)</t>
+  </si>
+  <si>
+    <t>Computer Science with Python Textbook and Practical Book for Class 12 (Paperback)</t>
+  </si>
+  <si>
+    <t>Textbook of Organic Chemistry - 2 for CBCS pattern (Paperback)</t>
+  </si>
+  <si>
+    <t>A Textbook of Inorganic Chemistry - II (Paperback)</t>
+  </si>
+  <si>
+    <t>A Textbook of Physical Chemistry - III  (Paperback)</t>
+  </si>
+  <si>
+    <t>A Textbook of Physical Chemistry (Paperback)</t>
+  </si>
+  <si>
+    <t>A Textbook of Inorganic Chemistry (Paperback)</t>
+  </si>
+  <si>
+    <t>Text Book of Inorganic Chemistry 3 (Paperback)</t>
   </si>
 </sst>
 </file>
@@ -488,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -509,6 +582,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1997,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2148,4 +2224,345 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>9789352533695</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="7">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>9781259029974</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="7">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>9788131806463</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="7">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>9789352533800</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="7">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>9788131809259</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="7">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>9788170087915</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="7">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>9780070139886</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="7">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>9789332587908</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="7">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>9781108411622</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="7">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>9783319922331</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="7">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>9788126577538</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="7">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>9788126578245</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="7">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>9788126570157</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="7">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
+        <v>9781402070730</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>9789389307054</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="7">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>9789391377054</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="7">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>9789389211436</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="7">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>9788177002362</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="7">
+        <v>9788194372362</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>9788916772362</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>9788912772362</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>9788912791272</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>9788912799924</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
+        <v>9788912244924</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,13 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
     <sheet name="Trendings" sheetId="2" r:id="rId2"/>
     <sheet name="Notebook" sheetId="3" r:id="rId3"/>
     <sheet name="Textbook" sheetId="4" r:id="rId4"/>
+    <sheet name="Craft Material" sheetId="5" r:id="rId5"/>
+    <sheet name="Bag" sheetId="6" r:id="rId6"/>
+    <sheet name="PenPencil" sheetId="7" r:id="rId7"/>
+    <sheet name="FIle" sheetId="8" r:id="rId8"/>
+    <sheet name="Bootle Tiffins" sheetId="9" r:id="rId9"/>
+    <sheet name="Study Book" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="309">
   <si>
     <t>LET US C++ PB (Paperback)</t>
   </si>
@@ -479,6 +485,532 @@
   </si>
   <si>
     <t>Text Book of Inorganic Chemistry 3 (Paperback)</t>
+  </si>
+  <si>
+    <t>CRAFTMATERIAL1</t>
+  </si>
+  <si>
+    <t>OFIXO 100 pcs Color Sheets (10 Sheets each color ) Copy Printing Papers / Art and Craft paper</t>
+  </si>
+  <si>
+    <t>CRAFTMATERIAL2</t>
+  </si>
+  <si>
+    <t>CRAFTMATERIAL3</t>
+  </si>
+  <si>
+    <t>CRAFTMATERIAL4</t>
+  </si>
+  <si>
+    <t>CRAFTMATERIAL5</t>
+  </si>
+  <si>
+    <t>CRAFTMATERIAL6</t>
+  </si>
+  <si>
+    <t>CRAFTMATERIAL7</t>
+  </si>
+  <si>
+    <t>CRAFTMATERIAL8</t>
+  </si>
+  <si>
+    <t>CRAFTMATERIAL9</t>
+  </si>
+  <si>
+    <t>CRAFTMATERIAL10</t>
+  </si>
+  <si>
+    <t>CRAFTMATERIAL11</t>
+  </si>
+  <si>
+    <t>CRAFTMATERIAL12</t>
+  </si>
+  <si>
+    <t>CRAFTMATERIAL13</t>
+  </si>
+  <si>
+    <t>CRAFTMATERIAL14</t>
+  </si>
+  <si>
+    <t>CRAFTMATERIAL15</t>
+  </si>
+  <si>
+    <t>Asian Hobby Crafts Pom Pom Crafts Kit with 50pcs Pipe Cleaners,100pcs goggly Eyes and 50pcs</t>
+  </si>
+  <si>
+    <t>GLUN 11 mm Transparent HOT MELT 14 Glue Sticks for DIY and Craft Work</t>
+  </si>
+  <si>
+    <t>Majestic Basket Multi Shaped Shining Stone Crystal Studs/Stickers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ratnesh Glitter Flakes (Nanha Sitara) Star Shaped Beautiful Craft Material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Generic Pack of 50 Assorted Animals Wooden Decorative Buttons for Sewing and Crafts</t>
+  </si>
+  <si>
+    <t>Craft Material and Many More School Project Work for Kids (Multicolour) Set of 20 Pieces</t>
+  </si>
+  <si>
+    <t>DIY Kit with 6 Different Types of Embroidery Stitches (7 Items)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Lovely Arts Collection Hand Embroidered Cotton Thread Skeins for Craft Projects, Multicolour (Pack of 25) -LAC97</t>
+  </si>
+  <si>
+    <t>Flower 14 Patch Embroidered Iron On Applique Patches for Clothes Bag Hat Dress DIY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Flash Metallic Color (Gold Plus, 50ml)</t>
+  </si>
+  <si>
+    <t>Generic 100Pcs Painted Colors Round Diy Wooden Buttons For Sewing And Crafting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SARTHAM, Fashion Craft - 6 in 1 Activity Boutique, Age 6+ (for Girls)</t>
+  </si>
+  <si>
+    <t>Craft Kit for Kids - Finger Painting and Painting, Tissue Art, Stamp Art, Blow Painting, Artsy Plates and Stencil Art (Age 6+)</t>
+  </si>
+  <si>
+    <t>Cello ColourUp Celebration Kit - Gift Pack|Colouring Kit for Kids|Combo Pack</t>
+  </si>
+  <si>
+    <t>NEWBAG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Storite Stylish Nylon Sling Cross Body Travel Office Business Messenger Bag for Men Women (25x16x7.5cm) (Dark Grey)</t>
+  </si>
+  <si>
+    <t>NEWBAG2</t>
+  </si>
+  <si>
+    <t>Dreamz Stylish 32 Ltrs Casual Backpack/I School Bags(Black)</t>
+  </si>
+  <si>
+    <t>American Tourister 32 Ltrs Grey Casual Backpack (AMT FIZZ SCH BAG 02 - GREY)</t>
+  </si>
+  <si>
+    <t>NEWBAG3</t>
+  </si>
+  <si>
+    <t>NEWBAG4</t>
+  </si>
+  <si>
+    <t>NEWBAG5</t>
+  </si>
+  <si>
+    <t>NEWBAG6</t>
+  </si>
+  <si>
+    <t>NEWBAG7</t>
+  </si>
+  <si>
+    <t>NEWBAG8</t>
+  </si>
+  <si>
+    <t>NEWBAG9</t>
+  </si>
+  <si>
+    <t>NEWBAG10</t>
+  </si>
+  <si>
+    <t>NEWBAG11</t>
+  </si>
+  <si>
+    <t>NEWBAG12</t>
+  </si>
+  <si>
+    <t>NEWBAG13</t>
+  </si>
+  <si>
+    <t>NEWBAG14</t>
+  </si>
+  <si>
+    <t>NEWBAG15</t>
+  </si>
+  <si>
+    <t>POSO Waterproof Travel Business 17 Inch Laptop Backpack with USB Charging PS-501 (Black)</t>
+  </si>
+  <si>
+    <t>Cosmus Atomic Dx 3 Compartment Large Laptop Bag - Navy Blue Polyester Waterproof Laptop Backpack</t>
+  </si>
+  <si>
+    <t>_x000D_
+COSMUS Multipurpose Backpack Bag - Cosmus Madison Navy Blue 33L waterproof Bag With laptop compartment1</t>
+  </si>
+  <si>
+    <t>_x000D_
+COSMUS Multipurpose Backpack Bag - Cosmus Madison Black 33L waterproof Bag With laptop compartment2</t>
+  </si>
+  <si>
+    <t>Laptop Bag for Women and Men | Backpacks for Girls Boys Stylish</t>
+  </si>
+  <si>
+    <t>Lunar's 35 Ltrs Casual Backpack</t>
+  </si>
+  <si>
+    <t>Wesley Milestone 15.6 inch 25 L Casual Waterproof Laptop Backpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+American Tourister 32 Ltrs Blue Casual Backpack (AMT FIZZ SCH BAG 02 - BLUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+American Tourister 32 Ltrs Olive Casual Backpack (AMT FIZZ SCH BAG 03 - OLIVE)</t>
+  </si>
+  <si>
+    <t>DZert Clasy Laptop Bag College Bag for Boys Girls 21 L Red Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Aristocrat 34 Ltrs Green Laptop Backpack (LPBPGRI1GRN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Singh Traders Store New Waterproof Laptop Bag/Backpack for School/College Guys (Black &amp; Blue)</t>
+  </si>
+  <si>
+    <t>PENPENCIL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Camlin Kokuyo Tri-Mech Pencil - Set of 3 with Leads and Xl Eraser</t>
+  </si>
+  <si>
+    <t>PENPENCIL2</t>
+  </si>
+  <si>
+    <t>PENPENCIL3</t>
+  </si>
+  <si>
+    <t>PENPENCIL4</t>
+  </si>
+  <si>
+    <t>PENPENCIL5</t>
+  </si>
+  <si>
+    <t>PENPENCIL6</t>
+  </si>
+  <si>
+    <t>PENPENCIL7</t>
+  </si>
+  <si>
+    <t>PENPENCIL8</t>
+  </si>
+  <si>
+    <t>PENPENCIL9</t>
+  </si>
+  <si>
+    <t>PENPENCIL10</t>
+  </si>
+  <si>
+    <t>PENPENCIL11</t>
+  </si>
+  <si>
+    <t>PENPENCIL12</t>
+  </si>
+  <si>
+    <t>PENPENCIL13</t>
+  </si>
+  <si>
+    <t>PENPENCIL14</t>
+  </si>
+  <si>
+    <t>PENPENCIL15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hauser Auto Gear Pencil - 0.7mm (Pack Of 5 pc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DCGpac Apsara Triga Pencil,(Pack of 200 pcs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DCGpac Doms Y1 Plus Pencil,(Pack of 200 pcs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Classmate Octane Gel Pen (Blue)- Neon Series- Pack of 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Cello Finegrip Ball Pen (25 Pens Jar - Blue) | Comfortable &amp; Smooth writing ball pens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+uni-ball Shalaku M7-228 Mechanical Pencil (Assorted Body Color, Pack of 6)</t>
+  </si>
+  <si>
+    <t>Cello School Kit Pen Set (Pack of 6 items)</t>
+  </si>
+  <si>
+    <t>DCGpac Apsara Platinum Extra Dark Pencils(Pack of 10),(Pack of 200 pcs)</t>
+  </si>
+  <si>
+    <t>DCGpac Natraj Pencil 621 HB,(Pack of 200 pcs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Faber-Castell Connector Pen Set - Pack of 25 (Assorted)</t>
+  </si>
+  <si>
+    <t>Lakshya India Wooden Handmade Handcrafted Pencil Set Ganesha Designed Pencil Set Including 10 Pencils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Lakshya India Wooden Handmade Handcrafted Pencil Set Bird Designed Pencil Set Including 10 Pencils</t>
+  </si>
+  <si>
+    <t>Cello Maxriter Ball Pen Set (Pack of 10 pens - Blue)</t>
+  </si>
+  <si>
+    <t>UNI-BALL UNJSP101BK6 Jetstream Roller Ball Pen Set - Pack of 6 (Black)</t>
+  </si>
+  <si>
+    <t>FILE1</t>
+  </si>
+  <si>
+    <t>FILE2</t>
+  </si>
+  <si>
+    <t>FILE3</t>
+  </si>
+  <si>
+    <t>FILE4</t>
+  </si>
+  <si>
+    <t>FILE5</t>
+  </si>
+  <si>
+    <t>FILE6</t>
+  </si>
+  <si>
+    <t>FILE7</t>
+  </si>
+  <si>
+    <t>FILE8</t>
+  </si>
+  <si>
+    <t>FILE9</t>
+  </si>
+  <si>
+    <t>FILE10</t>
+  </si>
+  <si>
+    <t>FILE11</t>
+  </si>
+  <si>
+    <t>FILE12</t>
+  </si>
+  <si>
+    <t>FILE13</t>
+  </si>
+  <si>
+    <t>FILE14</t>
+  </si>
+  <si>
+    <t>FILE15</t>
+  </si>
+  <si>
+    <t>Material Professional File Folders for Certificates, Files and folders for documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Kim Bag House Faux Leather Certificate, Documents, Portfolio Executive Files
+</t>
+  </si>
+  <si>
+    <t>Callas 3 Layer Polymer Elite Executive/Corporate Series FC Lever Arch File (Black, Pack of 1)</t>
+  </si>
+  <si>
+    <t>Storite PU Leather Multipurpose 24 File Sleeve to Store A4 Professional Files and Folders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DAHSHA Leather Professional File Folder with 20 Sleeves for File Folders</t>
+  </si>
+  <si>
+    <t>Multipurpose Document 20 Sleeves File Folder for Certificate A4 Size Executive Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Leitz Style PP Display Book File Folder with 20 Pockets, A4 (Garnet Red)</t>
+  </si>
+  <si>
+    <t>Comma Abaca - A4 Size - 2D Ring Binder File - Pack of 2 - (Black + Black)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mahavir Superior - Fullscape Size - 2D Lever Arch File with Rado Clip - Pack of 2 - (Grey + Maroon)</t>
+  </si>
+  <si>
+    <t>File Folder Case, A4 Size Presentation File/Report File Super Line Transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+VPS Enterprises Display Book File Folder A4 Size 10 Pockets, Color May Vary (Pack of 4 Pcs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A4 Paper Report Sliding Bar Cover Strip File Folder (Set of 10 Files) for A4 Size Paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Comma Abaca - A4 Size - 2D Ring Binder File - Pack of 2 - (Navy Blue + Red)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Comma Abaca - A4 Size - 2D Ring Binder File - Pack of 2 - (Green + Orange)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TRANBO Plastic File Folder with 13 Pockets, Handle, Index Tab, A4 Size, 2 Pieces (Blue)</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN1</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN2</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN3</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN4</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN5</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN6</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN7</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN8</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN9</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN10</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN11</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN12</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN13</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN14</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Oliveware Teso Lunch Box with Bottle - Black | 3 Stainless Steel Containers and Pickle Box and Assorted Steel Bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Oleander Stainless Steel 3 Container and 1 Casseroles with Plastic Bottle Lunch Box Tiffin Set with Bag(Multicolor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Atman Tiffin/Lunch Box with Bag for Office (Pack Contains- 3 Stainless Steel Containers, 1 Casserole with Bottle and Bag, Colour-Blue)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ADIRSA LB3001 Navy Blue Insulated Lunch Bag/Tiffin Bag for Men, Women, Kids, School, Picnic,Work Carry Bag for Lunch Boxes</t>
+  </si>
+  <si>
+    <t>Home Puff Contigo-L Lunch Box Stainless Steel Vacuum Insulated, with Bag, 2.0L, 3 Containers, Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Vaya BagMat Office &amp; School Lunch Bag with Sling for Tiffin Box and Water Bottle, Graphite Grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabia Series Stainless Steel Air Tight Leakage Proof 3 Containers 400ml Each Lunch Box Set </t>
+  </si>
+  <si>
+    <t>Home Puff Double Wall Vacuum Insulated Stainless Steel Lunch Box, 3-Containers, 1.7 Litre, Rose Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Eco Right Insulated Lunch Bag for Office Men, Women and Kids</t>
+  </si>
+  <si>
+    <t>Tupperware Xtreme Set - Bottle and Box for Travellers(Multicolor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TintBox BPA Free Borosilicate Glass Lunch Box Set with Protective Silicone Sleeve | Leak Proof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Milton Steel Combi Lunch Box with Tumbler, 4-Pieces, Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Milton Steel Combi Lunch Box with Tumbler, 4-Pieces, Beige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Milton Prime Lunch Plastic Tiffin Box Set, mm, 5-Pieces, Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Treo by Milton Health First Square Glass Tiffin Box with Cover, 300 ml, Set of 3, Transparent</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN16</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN17</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN18</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN19</t>
+  </si>
+  <si>
+    <t>BOTTLETEFFIN20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Cello Lunch Express, Insulated Tiffin and Water Bottle, Red</t>
+  </si>
+  <si>
+    <t>Cello Steelox Stainless Steel Lunch Box Combo 5-Piece, Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rema - Stainless Steel Lunch Box Set with 3 Steel Containers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+GOPY Stainless Steel 3 Container &amp; 1 Caserolles Set with Plastic Bottle Lunch Box</t>
+  </si>
+  <si>
+    <t>Cello Steelox Stainless Steel Lunch Box-4 Steel, Blue</t>
   </si>
 </sst>
 </file>
@@ -561,7 +1093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -583,6 +1115,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -867,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1972,12 +2517,1133 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="15">
+        <v>8176561061</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="15">
+        <v>9780006176909</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="15">
+        <v>9780007163540</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>9780007166053</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
+        <v>9780007182268</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>9780007192144</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
+        <v>9780007215997</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>9780007219285</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <v>9780007247394</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
+        <v>9780007252497</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>9780007286997</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
+        <v>9780007303106</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
+        <v>9780007303489</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="10">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="15">
+        <v>9780007312566</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="10">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="15">
+        <v>9780007341122</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="15">
+        <v>9780007341757</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="10">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="15">
+        <v>9780007342617</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="10">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="15">
+        <v>9780007350834</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="10">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="15">
+        <v>9780007360833</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="10">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="15">
+        <v>9780007379101</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="15">
+        <v>9780007446209</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="15">
+        <v>9780007446629</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="10">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="15">
+        <v>9780007447848</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="10">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="15">
+        <v>9780007458806</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="10">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="15">
+        <v>9780007493487</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="10">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="15">
+        <v>9780007493593</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="10">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="15">
+        <v>9780007592746</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="15">
+        <v>9780007837052</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="10">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="15">
+        <v>9780007869725</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="10">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="15">
+        <v>9780007879656</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="10">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="15">
+        <v>9780007879663</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="10">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="15">
+        <v>9780007879687</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="10">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="15">
+        <v>9780007925360</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="10">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="15">
+        <v>9780007925957</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="10">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="15">
+        <v>9780007926046</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="10">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="15">
+        <v>9780060927516</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="15">
+        <v>9780060934514</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="10">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="15">
+        <v>9780061491030</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="10">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="15">
+        <v>9780061724909</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="10">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="15">
+        <v>9780061782558</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="10">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="15">
+        <v>9780061834011</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="10">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="15">
+        <v>9780062009036</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="10">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="15">
+        <v>9780062075468</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="10">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="15">
+        <v>9780062284990</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="10">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="15">
+        <v>9780070066069</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="10">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="15">
+        <v>9780070091535</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="10">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="15">
+        <v>9780070141209</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="10">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="15">
+        <v>9780070144774</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="10">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="15">
+        <v>9780070151352</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="10">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="15">
+        <v>9780070151413</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="10">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="15">
+        <v>9780070152717</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="15">
+        <v>9780070177895</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="15">
+        <v>9780070212336</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="10">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="15">
+        <v>9780070221666</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="10">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="15">
+        <v>9780070252202</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="10">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="15">
+        <v>9780070263659</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="10">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="15">
+        <v>9780070434493</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="15">
+        <v>9780070483668</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="10">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="15">
+        <v>9780070494633</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="10">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="15">
+        <v>9780070494985</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="10">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="15">
+        <v>9780070499355</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="10">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="15">
+        <v>9780070577213</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="10">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="15">
+        <v>9780070581142</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="10">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="15">
+        <v>9780070582590</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="10">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="15">
+        <v>9780070586710</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="10">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="15">
+        <v>9780070586918</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="10">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="15">
+        <v>9780070587229</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="10">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="15">
+        <v>9780070588141</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="15">
+        <v>9780070594999</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="10">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="15">
+        <v>9780070595002</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="10">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="15">
+        <v>9780070595019</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="10">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="15">
+        <v>9780070601727</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" s="10">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="15">
+        <v>9780070604605</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="10">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="15">
+        <v>9780070615922</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="10">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="15">
+        <v>9780070635036</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" s="10">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="15">
+        <v>9780070635258</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="10">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="15">
+        <v>9780070647763</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" s="10">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="15">
+        <v>9780070668072</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="10">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="15">
+        <v>9780070669277</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="10">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="15">
+        <v>9780070670402</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="10">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="15">
+        <v>9780070671539</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" s="10">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="15">
+        <v>9780070681934</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" s="10">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="15">
+        <v>9780070682603</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85" s="10">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="15">
+        <v>9780070682689</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" s="10">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="15">
+        <v>9780070702493</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="15">
+        <v>9780070853461</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="10">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="15">
+        <v>9780071068093</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="10">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="15">
+        <v>9780071108850</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90" s="10">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="15">
+        <v>9780071156660</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" s="10">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="15">
+        <v>9780071156899</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" s="10">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="15">
+        <v>9780071159975</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" s="10">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="15">
+        <v>9780071203005</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94" s="10">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="15">
+        <v>9780071220095</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="10">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" s="15">
+        <v>9780071263368</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D96" s="10">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="15">
+        <v>9780071276191</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="10">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="15">
+        <v>9780071283434</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="10">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="15">
+        <v>9780071331807</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D99" s="10">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="15">
+        <v>9780071332354</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D100" s="10">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="15">
+        <v>9781509810987</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D101" s="10">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2230,8 +3896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2565,4 +4231,1245 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="7">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="7">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="7">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="7">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="7">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="7">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="7">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="7">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="7">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="7">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="7">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="7">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="7">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="7">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="7">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="7">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="7">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="7">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="7">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="7">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="7">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="7">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="7">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="7">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="7">
+        <v>250</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="7">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="7">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="7">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="7">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="7">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="7">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="7">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="7">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" s="7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" s="7">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" s="7">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" s="7">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="7">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="7">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
-    <sheet name="Trendings" sheetId="2" r:id="rId2"/>
-    <sheet name="Notebook" sheetId="3" r:id="rId3"/>
-    <sheet name="Textbook" sheetId="4" r:id="rId4"/>
-    <sheet name="Craft Material" sheetId="5" r:id="rId5"/>
-    <sheet name="Bag" sheetId="6" r:id="rId6"/>
-    <sheet name="PenPencil" sheetId="7" r:id="rId7"/>
-    <sheet name="FIle" sheetId="8" r:id="rId8"/>
-    <sheet name="Bootle Tiffins" sheetId="9" r:id="rId9"/>
-    <sheet name="Study Book" sheetId="10" r:id="rId10"/>
+    <sheet name="Today's Deal" sheetId="11" r:id="rId2"/>
+    <sheet name="Trendings" sheetId="2" r:id="rId3"/>
+    <sheet name="Notebook" sheetId="3" r:id="rId4"/>
+    <sheet name="Textbook" sheetId="4" r:id="rId5"/>
+    <sheet name="Craft Material" sheetId="5" r:id="rId6"/>
+    <sheet name="Bag" sheetId="6" r:id="rId7"/>
+    <sheet name="PenPencil" sheetId="7" r:id="rId8"/>
+    <sheet name="FIle" sheetId="8" r:id="rId9"/>
+    <sheet name="Bootle Tiffins" sheetId="9" r:id="rId10"/>
+    <sheet name="Study Book" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="309">
   <si>
     <t>LET US C++ PB (Paperback)</t>
   </si>
@@ -1093,7 +1094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1116,9 +1117,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1412,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2518,6 +2516,278 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="7">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="7">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="7">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="7">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="7">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="7">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="7">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" s="7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" s="7">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" s="7">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" s="7">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="7">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="7">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D101"/>
   <sheetViews>
@@ -2533,18 +2803,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>8176561061</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2555,7 +2825,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>9780006176909</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2566,7 +2836,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>9780007163540</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2577,7 +2847,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>9780007166053</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2588,7 +2858,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>9780007182268</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -2599,7 +2869,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>9780007192144</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -2610,7 +2880,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>9780007215997</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -2621,7 +2891,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>9780007219285</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -2632,7 +2902,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>9780007247394</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -2643,7 +2913,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>9780007252497</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -2654,7 +2924,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>9780007286997</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -2665,7 +2935,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>9780007303106</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -2676,7 +2946,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>9780007303489</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -2687,7 +2957,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>9780007312566</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -2698,7 +2968,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>9780007341122</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -2709,7 +2979,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>9780007341757</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -2720,7 +2990,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>9780007342617</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -2731,7 +3001,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>9780007350834</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -2742,7 +3012,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>9780007360833</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -2753,7 +3023,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>9780007379101</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -2764,7 +3034,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>9780007446209</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -2775,7 +3045,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>9780007446629</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2786,7 +3056,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>9780007447848</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -2797,7 +3067,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>9780007458806</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -2808,7 +3078,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <v>9780007493487</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -2819,7 +3089,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>9780007493593</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -2830,7 +3100,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <v>9780007592746</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -2841,7 +3111,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>9780007837052</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -2852,7 +3122,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>9780007869725</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -2863,7 +3133,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <v>9780007879656</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -2874,7 +3144,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>9780007879663</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -2885,7 +3155,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <v>9780007879687</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -2896,7 +3166,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <v>9780007925360</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -2907,7 +3177,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <v>9780007925957</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -2918,7 +3188,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="15">
+      <c r="B37" s="14">
         <v>9780007926046</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -2929,7 +3199,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="15">
+      <c r="B38" s="14">
         <v>9780060927516</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -2940,7 +3210,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="15">
+      <c r="B39" s="14">
         <v>9780060934514</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -2951,7 +3221,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="15">
+      <c r="B40" s="14">
         <v>9780061491030</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -2962,7 +3232,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="15">
+      <c r="B41" s="14">
         <v>9780061724909</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -2973,7 +3243,7 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="15">
+      <c r="B42" s="14">
         <v>9780061782558</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -2984,7 +3254,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="15">
+      <c r="B43" s="14">
         <v>9780061834011</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -2995,7 +3265,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="15">
+      <c r="B44" s="14">
         <v>9780062009036</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -3006,7 +3276,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="15">
+      <c r="B45" s="14">
         <v>9780062075468</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -3017,7 +3287,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="15">
+      <c r="B46" s="14">
         <v>9780062284990</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -3028,7 +3298,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="15">
+      <c r="B47" s="14">
         <v>9780070066069</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -3039,7 +3309,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="15">
+      <c r="B48" s="14">
         <v>9780070091535</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -3050,7 +3320,7 @@
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="15">
+      <c r="B49" s="14">
         <v>9780070141209</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -3061,7 +3331,7 @@
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="15">
+      <c r="B50" s="14">
         <v>9780070144774</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -3072,7 +3342,7 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="15">
+      <c r="B51" s="14">
         <v>9780070151352</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -3083,7 +3353,7 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="15">
+      <c r="B52" s="14">
         <v>9780070151413</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -3094,7 +3364,7 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="15">
+      <c r="B53" s="14">
         <v>9780070152717</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -3105,7 +3375,7 @@
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <v>9780070177895</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -3116,7 +3386,7 @@
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="15">
+      <c r="B55" s="14">
         <v>9780070212336</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -3127,7 +3397,7 @@
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="15">
+      <c r="B56" s="14">
         <v>9780070221666</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -3138,7 +3408,7 @@
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="15">
+      <c r="B57" s="14">
         <v>9780070252202</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -3149,7 +3419,7 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="15">
+      <c r="B58" s="14">
         <v>9780070263659</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -3160,7 +3430,7 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="15">
+      <c r="B59" s="14">
         <v>9780070434493</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -3171,7 +3441,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="15">
+      <c r="B60" s="14">
         <v>9780070483668</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -3182,7 +3452,7 @@
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <v>9780070494633</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -3193,7 +3463,7 @@
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="15">
+      <c r="B62" s="14">
         <v>9780070494985</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -3204,7 +3474,7 @@
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="15">
+      <c r="B63" s="14">
         <v>9780070499355</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -3215,7 +3485,7 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="15">
+      <c r="B64" s="14">
         <v>9780070577213</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -3226,7 +3496,7 @@
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="15">
+      <c r="B65" s="14">
         <v>9780070581142</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -3237,7 +3507,7 @@
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="15">
+      <c r="B66" s="14">
         <v>9780070582590</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -3248,7 +3518,7 @@
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="15">
+      <c r="B67" s="14">
         <v>9780070586710</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -3259,7 +3529,7 @@
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="15">
+      <c r="B68" s="14">
         <v>9780070586918</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -3270,7 +3540,7 @@
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="15">
+      <c r="B69" s="14">
         <v>9780070587229</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -3281,7 +3551,7 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="15">
+      <c r="B70" s="14">
         <v>9780070588141</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -3292,7 +3562,7 @@
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="15">
+      <c r="B71" s="14">
         <v>9780070594999</v>
       </c>
       <c r="C71" s="8" t="s">
@@ -3303,7 +3573,7 @@
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="15">
+      <c r="B72" s="14">
         <v>9780070595002</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -3314,7 +3584,7 @@
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="15">
+      <c r="B73" s="14">
         <v>9780070595019</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -3325,7 +3595,7 @@
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="15">
+      <c r="B74" s="14">
         <v>9780070601727</v>
       </c>
       <c r="C74" s="8" t="s">
@@ -3336,7 +3606,7 @@
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="15">
+      <c r="B75" s="14">
         <v>9780070604605</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -3347,7 +3617,7 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="15">
+      <c r="B76" s="14">
         <v>9780070615922</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -3358,7 +3628,7 @@
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="15">
+      <c r="B77" s="14">
         <v>9780070635036</v>
       </c>
       <c r="C77" s="8" t="s">
@@ -3369,7 +3639,7 @@
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="15">
+      <c r="B78" s="14">
         <v>9780070635258</v>
       </c>
       <c r="C78" s="8" t="s">
@@ -3380,7 +3650,7 @@
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="15">
+      <c r="B79" s="14">
         <v>9780070647763</v>
       </c>
       <c r="C79" s="8" t="s">
@@ -3391,7 +3661,7 @@
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="15">
+      <c r="B80" s="14">
         <v>9780070668072</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -3402,7 +3672,7 @@
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="15">
+      <c r="B81" s="14">
         <v>9780070669277</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -3413,7 +3683,7 @@
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="15">
+      <c r="B82" s="14">
         <v>9780070670402</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -3424,7 +3694,7 @@
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="15">
+      <c r="B83" s="14">
         <v>9780070671539</v>
       </c>
       <c r="C83" s="8" t="s">
@@ -3435,7 +3705,7 @@
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="15">
+      <c r="B84" s="14">
         <v>9780070681934</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -3446,7 +3716,7 @@
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="15">
+      <c r="B85" s="14">
         <v>9780070682603</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -3457,7 +3727,7 @@
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="15">
+      <c r="B86" s="14">
         <v>9780070682689</v>
       </c>
       <c r="C86" s="8" t="s">
@@ -3468,7 +3738,7 @@
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="15">
+      <c r="B87" s="14">
         <v>9780070702493</v>
       </c>
       <c r="C87" s="8" t="s">
@@ -3479,7 +3749,7 @@
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="15">
+      <c r="B88" s="14">
         <v>9780070853461</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -3490,7 +3760,7 @@
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="15">
+      <c r="B89" s="14">
         <v>9780071068093</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -3501,7 +3771,7 @@
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" s="15">
+      <c r="B90" s="14">
         <v>9780071108850</v>
       </c>
       <c r="C90" s="8" t="s">
@@ -3512,7 +3782,7 @@
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="15">
+      <c r="B91" s="14">
         <v>9780071156660</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -3523,7 +3793,7 @@
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="15">
+      <c r="B92" s="14">
         <v>9780071156899</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -3534,7 +3804,7 @@
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" s="15">
+      <c r="B93" s="14">
         <v>9780071159975</v>
       </c>
       <c r="C93" s="8" t="s">
@@ -3545,7 +3815,7 @@
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="15">
+      <c r="B94" s="14">
         <v>9780071203005</v>
       </c>
       <c r="C94" s="8" t="s">
@@ -3556,7 +3826,7 @@
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B95" s="15">
+      <c r="B95" s="14">
         <v>9780071220095</v>
       </c>
       <c r="C95" s="8" t="s">
@@ -3567,7 +3837,7 @@
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B96" s="15">
+      <c r="B96" s="14">
         <v>9780071263368</v>
       </c>
       <c r="C96" s="8" t="s">
@@ -3578,7 +3848,7 @@
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="15">
+      <c r="B97" s="14">
         <v>9780071276191</v>
       </c>
       <c r="C97" s="8" t="s">
@@ -3589,7 +3859,7 @@
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="15">
+      <c r="B98" s="14">
         <v>9780071283434</v>
       </c>
       <c r="C98" s="8" t="s">
@@ -3600,7 +3870,7 @@
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="15">
+      <c r="B99" s="14">
         <v>9780071331807</v>
       </c>
       <c r="C99" s="8" t="s">
@@ -3611,7 +3881,7 @@
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="15">
+      <c r="B100" s="14">
         <v>9780071332354</v>
       </c>
       <c r="C100" s="8" t="s">
@@ -3622,7 +3892,7 @@
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="15">
+      <c r="B101" s="14">
         <v>9781509810987</v>
       </c>
       <c r="C101" s="8" t="s">
@@ -3643,13 +3913,110 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>8176561061</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>9780006176909</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>9780007163540</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>9780007166053</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>9780007182268</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>9780007192144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>9780007215997</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3735,12 +4102,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3892,12 +4259,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="H13" activeCellId="1" sqref="C7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4233,12 +4600,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4363,7 +4730,7 @@
       <c r="B12" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>173</v>
       </c>
       <c r="D12" s="7">
@@ -4385,7 +4752,7 @@
       <c r="B14" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>175</v>
       </c>
       <c r="D14" s="7">
@@ -4475,12 +4842,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4517,7 +4884,7 @@
       <c r="B4" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="7">
@@ -4550,7 +4917,7 @@
       <c r="B7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>199</v>
       </c>
       <c r="D7" s="7">
@@ -4561,7 +4928,7 @@
       <c r="B8" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>200</v>
       </c>
       <c r="D8" s="7">
@@ -4605,7 +4972,7 @@
       <c r="B12" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="7">
@@ -4717,12 +5084,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4792,7 +5159,7 @@
       <c r="B7" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>228</v>
       </c>
       <c r="D7" s="7">
@@ -4803,7 +5170,7 @@
       <c r="B8" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>229</v>
       </c>
       <c r="D8" s="7">
@@ -4847,7 +5214,7 @@
       <c r="B12" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>233</v>
       </c>
       <c r="D12" s="7">
@@ -4959,12 +5326,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5095,7 +5462,7 @@
       <c r="D12" s="7">
         <v>250</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
@@ -5200,276 +5567,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" s="7">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="7">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D5" s="7">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" s="7">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D7" s="7">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8" s="7">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D9" s="7">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2899</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D11" s="7">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D12" s="7">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D14" s="7">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D15" s="7">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" s="7">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D17" s="7">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D18" s="7">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D19" s="7">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D20" s="7">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" s="7">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D22" s="7">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>